--- a/config.xlsx
+++ b/config.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projects\LLM_trust_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5840B00D-FDA2-4561-85D8-09359D896712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0A1B6-E020-4E33-9B27-70AAD0894F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>system_prompt</t>
   </si>
@@ -33,9 +31,6 @@
     <t>prompt</t>
   </si>
   <si>
-    <t>sum</t>
-  </si>
-  <si>
     <t>n_requests</t>
   </si>
   <si>
@@ -45,16 +40,191 @@
     <t>save</t>
   </si>
   <si>
-    <t>You are a strict but fair policeman. You believe in justice and following the rules. When making decisions, you consider what is morally right and lawful.</t>
-  </si>
-  <si>
-    <t>You are participating in a Dictator Game. You have been given a {sum} to split between yourself and another player. The other player has no say in the division. How much do you choose to keep for yourself, and how much do you give to the other player?</t>
-  </si>
-  <si>
-    <t>You are a cunning thief who always looks out for yourself. You prioritize personal gain over fairness and have no qualms about taking more than your share.</t>
-  </si>
-  <si>
-    <t>You are a kind-hearted young woman who values generosity and empathy. You want to help others and believe in sharing resources fairly.</t>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>list2007_1</t>
+  </si>
+  <si>
+    <t>list2007_2</t>
+  </si>
+  <si>
+    <t>list2007_3</t>
+  </si>
+  <si>
+    <t>list2007_4</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_1</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_2</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_3</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_4</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_5</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_6</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_7</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_8</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_1</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_2</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_3</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_4</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_5</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_6</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_7</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_8</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_1</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_2</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_3</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_4</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_5</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_6</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_7</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_8</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_1</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_2</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_3</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_4</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_5</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_6</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_7</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_8</t>
+  </si>
+  <si>
+    <t>You are an undergraduate student and you are participating in an experiment.</t>
+  </si>
+  <si>
+    <t>You are taking part in an experiment. You are a man, over 50 years old, with over 12 years of education.</t>
+  </si>
+  <si>
+    <t>You are taking part in an experiment. You are a man, over 50 years old, with 12 years of education or less.</t>
+  </si>
+  <si>
+    <t>You are participating in an experiment. You are a man, 50 years old or younger, with more than 12 years of education.</t>
+  </si>
+  <si>
+    <t>You are participating in an experiment. You are male, 50 years old or younger, with 12 years of education or less.</t>
+  </si>
+  <si>
+    <t>You are taking part in an experiment. You are a woman, over 50 years old, with over 12 years of education.</t>
+  </si>
+  <si>
+    <t>You are taking part in an experiment. You are a woman, over 50 years old, with 12 years of education or less.</t>
+  </si>
+  <si>
+    <t>You are participating in an experiment. You are a woman, 50 years old or younger, with more than 12 years of education.</t>
+  </si>
+  <si>
+    <t>You are participating in an experiment. You are a woman, 50 years old or younger, with 12 years of education or less.</t>
+  </si>
+  <si>
+    <t>You and your randomly assigned partner are initially given $5. You are also given an additional $5, of which you can give your partner any multiple of $0.50 (set {0, 0.50, 1.00, …, 5.00}), or nothing.  After the distribution, you will receive $10.00 (the amount you chose) dollars, and your partner will receive their $5 plus the amount you gave. These are the amounts you will both receive. You are both fully aware of the rules of the experiment.  Write one number from the set {0, 0.50, 1.00, …, 5.00} — how much of the additional $5 you will give to your partner.</t>
+  </si>
+  <si>
+    <t>You and your randomly assigned partner are initially given $5. You are also given $5 from which to choose one value from the set {−1.00, 0, 0.50, 1.00, …, 5.00} dollars: • a positive value means the amount you give to your partner, • -1.00 means you take $1 from them, • 0 means you do not change anything.  After the distribution, your reward will be $5 + (5.00 − chosen value), and your partner's reward will be $5 + (chosen value). These are the amounts you will both receive in hand. You are both fully aware of the rules of the experiment.  Write one number from the set {−1.00, 0, 0.50, 1.00, …, 5.00}.</t>
+  </si>
+  <si>
+    <t>First, you do a 30-minute task of sorting mail for a charity and earn $10; your randomly assigned partner does the same but earns $5. You both know how much each of you is earning. You can choose any value from the set {−5.00, −4.50, −4.00, …, −0.50, 0, 0.50, 1.00, …, 5.00} dollars: - a positive value means the amount you give to your partner, - a negative value means the amount you take from your partner, - 0 means you do not change anything.  After the distribution, your final reward will be $10 − (chosen value), and your partner's reward will be $5 + (chosen value). These are the amounts you will both receive in hand.  Write one number from the set {−5.00, −4.50, −4.00, …, −0.50, 0, 0.50, 1.00, …, 5.00}.</t>
+  </si>
+  <si>
+    <t>The total pool is 300 DKK (≈ 50 USD): you have been given 200 DKK, your partner has been given 100 DKK, and you both know this. You can give any amount of your 100 DKK (in multiples of 10) or nothing to your randomly assigned partner. After the distribution, you will be left with (200 – the amount you gave) DKK, and your partner will be left with (100 + the amount you gave) DKK, and these are the amounts you both receive in your hands. Both you and your partner know the rules of the experiment in full. Write one number from the set {0, 10, 20, …, 100} — how many of these 100 DKK you will give.</t>
+  </si>
+  <si>
+    <t>The total pool is 300 DKK (≈ 50 USD): you are pre-allocated 200 DKK, your partner is allocated 100 DKK, and you both know this initial allocation. You can choose any number from the set {−100, −90, −80, …, 0, 10, 20, …, 100} DKK: - a positive value means the amount you transfer to your partner, - a negative value means the amount you take away from your partner, - zero means you don't transfer or take away anything. After the allocation, you will be left with 200 − (the selected amount) DKK, and your partner will have 100 + (the selected amount) DKK. These are the amounts you will both receive in your hands. Both you and your partner are fully aware of the rules of the experiment. Write one number from the given set.</t>
+  </si>
+  <si>
+    <t>First, you complete the task (count orange squares: 12 correct answers in 5 minutes) and earn 150 DKK; your partner does the same. You earn a total of 300 DKK (≈ 50 USD): you were initially allocated 200 DKK, your partner – 100 DKK, and you both know this initial allocation. You can transfer any amount of your 100 DKK (multiple of 10) or nothing to your randomly assigned partner. After the allocation, you will be left with (200 – transferred amount) DKK, and your partner will be left with (100 + transferred amount) DKK, and these are the amounts you both receive in your hands. Both you and your partner are fully aware of the rules of the experiment. Write one number from the set {0, 10, 20, …, 100} — how many of these 100 DKK you will give.</t>
+  </si>
+  <si>
+    <t>First, you complete the task (count the orange squares: 12 correct answers in 5 minutes) and earn 150 DKK; your partner does the same. You earn a total of 300 DKK (≈ 50 USD): you were initially allocated 200 DKK, your partner – 100 DKK, and you both know this initial allocation. You can choose any number from the set {−100, −90, −80, …, 0, 10, 20, …, 100} DKK: - a positive value means the amount you transfer to your partner, - a negative value means the amount you take away from your partner, - zero means you don’t transfer or take away anything. After the distribution, you will have 200 − (chosen value) DKK, and your partner will have 100 + (chosen value) DKK. These are the amounts that you will both receive in your hands. Both you and your partner fully know the rules of the experiment. Write one number from the given set.</t>
+  </si>
+  <si>
+    <t>male, age&gt;50, edu&gt;12</t>
+  </si>
+  <si>
+    <t>male, age&gt;50, edu&lt;=12</t>
+  </si>
+  <si>
+    <t>male, age&lt;=50, edu&gt;12</t>
+  </si>
+  <si>
+    <t>male, age&lt;=50, edu&lt;=12</t>
+  </si>
+  <si>
+    <t>female, age&gt;50, edu&gt;12</t>
+  </si>
+  <si>
+    <t>female, age&gt;50, edu≤12</t>
+  </si>
+  <si>
+    <t>female, age≤50, edu&gt;12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female, age≤50, edu≤12
+</t>
+  </si>
+  <si>
+    <t>You and your randomly assigned partner are initially given $5 each. In addition, you are given $5, from which you can choose one value from the set {−5.00, −4.50, −4.00, …, −0.50, 0, 0.50, …, 5.00} dollars: • a positive value means the amount you give to your partner, • a negative value means the amount you take from your partner, • 0 means you do not change anything. After the distribution, your reward will be $10.00 – (the chosen value), and your partner's reward will be $5 + (the chosen value). These are the amounts you will both receive in hand. You are both fully aware of the rules of the experiment.  Write one number from the set {−5.00, −4.50, −4.00, …, −0.50, 0, 0.50, …, 5.00}.</t>
   </si>
 </sst>
 </file>
@@ -70,11 +240,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-      <charset val="204"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,12 +256,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -99,15 +285,15 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,9 +306,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -130,44 +316,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -197,12 +383,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -232,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -241,252 +427,1125 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>0.3</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>0.7</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>7</v>
+      </c>
+      <c r="H33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projects\LLM_trust_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD0A1B6-E020-4E33-9B27-70AAD0894F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA97ED4-97A5-456B-AB96-064D1150E9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9975" yWindow="1050" windowWidth="15660" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,13 +637,13 @@
         <v>52</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -660,13 +660,13 @@
         <v>53</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -683,13 +683,13 @@
         <v>67</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,13 +706,13 @@
         <v>54</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -729,13 +729,13 @@
         <v>55</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>59</v>
@@ -755,13 +755,13 @@
         <v>55</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
         <v>60</v>
@@ -781,13 +781,13 @@
         <v>55</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>61</v>
@@ -807,13 +807,13 @@
         <v>55</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>62</v>
@@ -833,13 +833,13 @@
         <v>55</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>63</v>
@@ -859,13 +859,13 @@
         <v>55</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>64</v>
@@ -885,13 +885,13 @@
         <v>55</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
         <v>65</v>
@@ -911,13 +911,13 @@
         <v>55</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>66</v>
@@ -937,13 +937,13 @@
         <v>56</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>59</v>
@@ -963,13 +963,13 @@
         <v>56</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -989,13 +989,13 @@
         <v>56</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>61</v>
@@ -1015,13 +1015,13 @@
         <v>56</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>62</v>
@@ -1041,13 +1041,13 @@
         <v>56</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>63</v>
@@ -1067,13 +1067,13 @@
         <v>56</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
         <v>64</v>
@@ -1093,13 +1093,13 @@
         <v>56</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
         <v>65</v>
@@ -1119,13 +1119,13 @@
         <v>56</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>66</v>
@@ -1145,13 +1145,13 @@
         <v>57</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>59</v>
@@ -1171,13 +1171,13 @@
         <v>57</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -1197,13 +1197,13 @@
         <v>57</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>61</v>
@@ -1223,13 +1223,13 @@
         <v>57</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
         <v>62</v>
@@ -1249,13 +1249,13 @@
         <v>57</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>63</v>
@@ -1275,13 +1275,13 @@
         <v>57</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>64</v>
@@ -1301,13 +1301,13 @@
         <v>57</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>65</v>
@@ -1327,13 +1327,13 @@
         <v>57</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>66</v>
@@ -1353,13 +1353,13 @@
         <v>58</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
         <v>59</v>
@@ -1379,13 +1379,13 @@
         <v>58</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
         <v>60</v>
@@ -1405,13 +1405,13 @@
         <v>58</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>61</v>
@@ -1431,13 +1431,13 @@
         <v>58</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G33">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>62</v>
@@ -1457,13 +1457,13 @@
         <v>58</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G34">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H34" t="s">
         <v>63</v>
@@ -1483,13 +1483,13 @@
         <v>58</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>64</v>
@@ -1509,13 +1509,13 @@
         <v>58</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>65</v>
@@ -1535,13 +1535,13 @@
         <v>58</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H37" t="s">
         <v>66</v>

--- a/config.xlsx
+++ b/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petr\LLM_trust_games\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Projects\LLM_trust_games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02836CE7-9D7B-47A8-A7C0-3C9355337853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAC1171-9F69-406F-83BE-F5DDE90C52FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -31,12 +31,6 @@
     <t>prompt</t>
   </si>
   <si>
-    <t>You are playing the game. In this game, 2 players including you simultaneously choose an integer between 0 and 100, inclusive. The winner of the game is the player whose number is closest to 2/3 of the average of all of the numbers chosen. You are playing against the following opponents: first-year undergraduate students majoring in either economics, political science, law, medicine, or the humanities with no formal training in game theory. You are in the same group as the first-year undergraduate students majoring in either economics, political science, law, medicine, or the humanities with no formal training in game theory, you possess the same skills, knowledge, level of intelligence, education, etc.</t>
-  </si>
-  <si>
-    <t>You are playing the game. In this game, 2 players including you simultaneously choose an integer between 0 and 100, inclusive. The winner of the game is the player whose number is closest to 2/3 of the average of all of the numbers chosen. You are playing against the following opponents: audience of economics or psychology-decision making conferences. You are in the same group as the audience of economics or psychology decision-making conferences, you possess the same skills, knowledge, level of intelligence, education, etc.</t>
-  </si>
-  <si>
     <t>n_requests</t>
   </si>
   <si>
@@ -46,24 +40,207 @@
     <t>save</t>
   </si>
   <si>
-    <t>What number will you choose, and why?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What number will you choose, and why? </t>
-  </si>
-  <si>
-    <t>Grosskopf_Nagel_2008_1</t>
-  </si>
-  <si>
-    <t>Grosskopf_Nagel_2008_2</t>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>list2007_1</t>
+  </si>
+  <si>
+    <t>list2007_2</t>
+  </si>
+  <si>
+    <t>list2007_3</t>
+  </si>
+  <si>
+    <t>list2007_4</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_1</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_2</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_3</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_4</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_5</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_6</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_7</t>
+  </si>
+  <si>
+    <t>Cappelen2013_1_8</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_1</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_2</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_3</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_4</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_5</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_6</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_7</t>
+  </si>
+  <si>
+    <t>Cappelen2013_2_8</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_1</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_2</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_3</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_4</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_5</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_6</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_7</t>
+  </si>
+  <si>
+    <t>Cappelen2013_3_8</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_1</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_2</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_3</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_4</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_5</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_6</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_7</t>
+  </si>
+  <si>
+    <t>Cappelen2013_4_8</t>
+  </si>
+  <si>
+    <t>You are an undergraduate student and you are participating in an experiment.</t>
+  </si>
+  <si>
+    <t>You are taking part in an experiment. You are a man, over 50 years old, with over 12 years of education.</t>
+  </si>
+  <si>
+    <t>You are taking part in an experiment. You are a man, over 50 years old, with 12 years of education or less.</t>
+  </si>
+  <si>
+    <t>You are participating in an experiment. You are a man, 50 years old or younger, with more than 12 years of education.</t>
+  </si>
+  <si>
+    <t>You are participating in an experiment. You are male, 50 years old or younger, with 12 years of education or less.</t>
+  </si>
+  <si>
+    <t>You are taking part in an experiment. You are a woman, over 50 years old, with over 12 years of education.</t>
+  </si>
+  <si>
+    <t>You are taking part in an experiment. You are a woman, over 50 years old, with 12 years of education or less.</t>
+  </si>
+  <si>
+    <t>You are participating in an experiment. You are a woman, 50 years old or younger, with more than 12 years of education.</t>
+  </si>
+  <si>
+    <t>You are participating in an experiment. You are a woman, 50 years old or younger, with 12 years of education or less.</t>
+  </si>
+  <si>
+    <t>You and your randomly assigned partner are initially given $5. You are also given an additional $5, of which you can give your partner any multiple of $0.50 (set {0, 0.50, 1.00, …, 5.00}), or nothing.  After the distribution, you will receive $10.00 (the amount you chose) dollars, and your partner will receive their $5 plus the amount you gave. These are the amounts you will both receive. You are both fully aware of the rules of the experiment.  Write one number from the set {0, 0.50, 1.00, …, 5.00} — how much of the additional $5 you will give to your partner.</t>
+  </si>
+  <si>
+    <t>You and your randomly assigned partner are initially given $5. You are also given $5 from which to choose one value from the set {−1.00, 0, 0.50, 1.00, …, 5.00} dollars: • a positive value means the amount you give to your partner, • -1.00 means you take $1 from them, • 0 means you do not change anything.  After the distribution, your reward will be $5 + (5.00 − chosen value), and your partner's reward will be $5 + (chosen value). These are the amounts you will both receive in hand. You are both fully aware of the rules of the experiment.  Write one number from the set {−1.00, 0, 0.50, 1.00, …, 5.00}.</t>
+  </si>
+  <si>
+    <t>First, you do a 30-minute task of sorting mail for a charity and earn $10; your randomly assigned partner does the same but earns $5. You both know how much each of you is earning. You can choose any value from the set {−5.00, −4.50, −4.00, …, −0.50, 0, 0.50, 1.00, …, 5.00} dollars: - a positive value means the amount you give to your partner, - a negative value means the amount you take from your partner, - 0 means you do not change anything.  After the distribution, your final reward will be $10 − (chosen value), and your partner's reward will be $5 + (chosen value). These are the amounts you will both receive in hand.  Write one number from the set {−5.00, −4.50, −4.00, …, −0.50, 0, 0.50, 1.00, …, 5.00}.</t>
+  </si>
+  <si>
+    <t>The total pool is 300 DKK (≈ 50 USD): you have been given 200 DKK, your partner has been given 100 DKK, and you both know this. You can give any amount of your 100 DKK (in multiples of 10) or nothing to your randomly assigned partner. After the distribution, you will be left with (200 – the amount you gave) DKK, and your partner will be left with (100 + the amount you gave) DKK, and these are the amounts you both receive in your hands. Both you and your partner know the rules of the experiment in full. Write one number from the set {0, 10, 20, …, 100} — how many of these 100 DKK you will give.</t>
+  </si>
+  <si>
+    <t>The total pool is 300 DKK (≈ 50 USD): you are pre-allocated 200 DKK, your partner is allocated 100 DKK, and you both know this initial allocation. You can choose any number from the set {−100, −90, −80, …, 0, 10, 20, …, 100} DKK: - a positive value means the amount you transfer to your partner, - a negative value means the amount you take away from your partner, - zero means you don't transfer or take away anything. After the allocation, you will be left with 200 − (the selected amount) DKK, and your partner will have 100 + (the selected amount) DKK. These are the amounts you will both receive in your hands. Both you and your partner are fully aware of the rules of the experiment. Write one number from the given set.</t>
+  </si>
+  <si>
+    <t>First, you complete the task (count orange squares: 12 correct answers in 5 minutes) and earn 150 DKK; your partner does the same. You earn a total of 300 DKK (≈ 50 USD): you were initially allocated 200 DKK, your partner – 100 DKK, and you both know this initial allocation. You can transfer any amount of your 100 DKK (multiple of 10) or nothing to your randomly assigned partner. After the allocation, you will be left with (200 – transferred amount) DKK, and your partner will be left with (100 + transferred amount) DKK, and these are the amounts you both receive in your hands. Both you and your partner are fully aware of the rules of the experiment. Write one number from the set {0, 10, 20, …, 100} — how many of these 100 DKK you will give.</t>
+  </si>
+  <si>
+    <t>First, you complete the task (count the orange squares: 12 correct answers in 5 minutes) and earn 150 DKK; your partner does the same. You earn a total of 300 DKK (≈ 50 USD): you were initially allocated 200 DKK, your partner – 100 DKK, and you both know this initial allocation. You can choose any number from the set {−100, −90, −80, …, 0, 10, 20, …, 100} DKK: - a positive value means the amount you transfer to your partner, - a negative value means the amount you take away from your partner, - zero means you don’t transfer or take away anything. After the distribution, you will have 200 − (chosen value) DKK, and your partner will have 100 + (chosen value) DKK. These are the amounts that you will both receive in your hands. Both you and your partner fully know the rules of the experiment. Write one number from the given set.</t>
+  </si>
+  <si>
+    <t>male, age&gt;50, edu&gt;12</t>
+  </si>
+  <si>
+    <t>male, age&gt;50, edu&lt;=12</t>
+  </si>
+  <si>
+    <t>male, age&lt;=50, edu&gt;12</t>
+  </si>
+  <si>
+    <t>male, age&lt;=50, edu&lt;=12</t>
+  </si>
+  <si>
+    <t>female, age&gt;50, edu&gt;12</t>
+  </si>
+  <si>
+    <t>female, age&gt;50, edu≤12</t>
+  </si>
+  <si>
+    <t>female, age≤50, edu&gt;12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">female, age≤50, edu≤12
+</t>
+  </si>
+  <si>
+    <t>You and your randomly assigned partner are initially given $5 each. In addition, you are given $5, from which you can choose one value from the set {−5.00, −4.50, −4.00, …, −0.50, 0, 0.50, …, 5.00} dollars: • a positive value means the amount you give to your partner, • a negative value means the amount you take from your partner, • 0 means you do not change anything. After the distribution, your reward will be $10.00 – (the chosen value), and your partner's reward will be $5 + (the chosen value). These are the amounts you will both receive in hand. You are both fully aware of the rules of the experiment.  Write one number from the set {−5.00, −4.50, −4.00, …, −0.50, 0, 0.50, …, 5.00}.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -79,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -87,12 +264,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -397,72 +592,963 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
